--- a/A.L.I2.xlsx
+++ b/A.L.I2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Projects\Aligate\Recommender System\recommender backend\testproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E514DB-D951-4F1B-BDF7-FBF89DBD479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9FB23-5886-40A5-A6D1-479E6A55E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
@@ -20,49 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
-  <si>
-    <t>Swimming Pool</t>
-  </si>
-  <si>
-    <t>Fireside Seating</t>
-  </si>
-  <si>
-    <t>Community Garden</t>
-  </si>
-  <si>
-    <t>Tennis Court</t>
-  </si>
-  <si>
-    <t>Bike Stalls</t>
-  </si>
-  <si>
-    <t>Covered Parking</t>
-  </si>
-  <si>
-    <t>Garage Parking</t>
-  </si>
-  <si>
-    <t>Allow Pets</t>
-  </si>
-  <si>
-    <t>Dog Park</t>
-  </si>
-  <si>
-    <t>Rooftop Lounge</t>
-  </si>
-  <si>
-    <t>High Ceilings</t>
-  </si>
-  <si>
-    <t>Ceiling Fans</t>
-  </si>
-  <si>
-    <t>Granite Counter Tops</t>
-  </si>
-  <si>
-    <t>Island Kitchen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>East Vue Ranch Apartments</t>
   </si>
@@ -184,55 +142,100 @@
     <t>arnold apartments</t>
   </si>
   <si>
-    <t>Gym/Fitness Center</t>
-  </si>
-  <si>
-    <t>Basket Ball Court</t>
-  </si>
-  <si>
-    <t>Clubhouse/Resident Lounge</t>
-  </si>
-  <si>
-    <t>Business room/Confrence Room</t>
-  </si>
-  <si>
-    <t>Gameroom</t>
-  </si>
-  <si>
-    <t>Cofee Bar</t>
-  </si>
-  <si>
-    <t>EV Charger</t>
-  </si>
-  <si>
-    <t>Skyline Views</t>
-  </si>
-  <si>
-    <t>Package Lockers</t>
-  </si>
-  <si>
     <t>Elevators</t>
   </si>
   <si>
-    <t>Downwash Station</t>
+    <t>SwimmingPool</t>
   </si>
   <si>
-    <t>Parking Available</t>
+    <t>BBQGrill</t>
   </si>
   <si>
-    <t>Fire Place</t>
+    <t>FiresideSeating</t>
   </si>
   <si>
-    <t>Premium Lighting</t>
+    <t>CommunityGarden</t>
   </si>
   <si>
-    <t>Stainless Steel Appliances</t>
+    <t>Gym</t>
   </si>
   <si>
-    <t>Washer Dryer</t>
+    <t>BasketBallCourt</t>
   </si>
   <si>
-    <t>BBQ Grill</t>
+    <t>TennisCourt</t>
+  </si>
+  <si>
+    <t>RooftopLounge</t>
+  </si>
+  <si>
+    <t>Clubhouse</t>
+  </si>
+  <si>
+    <t>BusinessRoom</t>
+  </si>
+  <si>
+    <t>GameRoom</t>
+  </si>
+  <si>
+    <t>CofeeBar</t>
+  </si>
+  <si>
+    <t>EVCharger</t>
+  </si>
+  <si>
+    <t>SkylineViews</t>
+  </si>
+  <si>
+    <t>PackageLockers</t>
+  </si>
+  <si>
+    <t>AllowPets</t>
+  </si>
+  <si>
+    <t>DogPark</t>
+  </si>
+  <si>
+    <t>DownwashStation</t>
+  </si>
+  <si>
+    <t>ParkingAvailable</t>
+  </si>
+  <si>
+    <t>CoveredParking</t>
+  </si>
+  <si>
+    <t>GarageParking</t>
+  </si>
+  <si>
+    <t>BikeStalls</t>
+  </si>
+  <si>
+    <t>FirePlace</t>
+  </si>
+  <si>
+    <t>HighCeilings</t>
+  </si>
+  <si>
+    <t>CeilingFans</t>
+  </si>
+  <si>
+    <t>PremiumLighting</t>
+  </si>
+  <si>
+    <t>GraniteCounterTops</t>
+  </si>
+  <si>
+    <t>IslandKitchen</t>
+  </si>
+  <si>
+    <t>StainlessSteelAppliances</t>
+  </si>
+  <si>
+    <t>WasherDryer</t>
+  </si>
+  <si>
+    <t>Apartments</t>
   </si>
 </sst>
 </file>
@@ -807,16 +810,16 @@
   <dimension ref="A1:AF1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
     <col min="6" max="6" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="18.453125" customWidth="1"/>
@@ -835,104 +838,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1024,7 +1029,7 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1122,7 +1127,7 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1220,7 +1225,7 @@
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1308,7 +1313,7 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -1406,7 +1411,7 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="18">
         <v>1</v>
@@ -1504,7 +1509,7 @@
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" s="18">
         <v>1</v>
@@ -1602,7 +1607,7 @@
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="20">
         <v>1</v>
@@ -1698,7 +1703,7 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="22">
         <v>1</v>
@@ -1796,7 +1801,7 @@
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -1892,7 +1897,7 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="22">
         <v>1</v>
@@ -1990,7 +1995,7 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="22">
         <v>0</v>
@@ -2088,7 +2093,7 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="25">
         <v>0</v>
@@ -2186,7 +2191,7 @@
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B15" s="25">
         <v>1</v>
@@ -2282,7 +2287,7 @@
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" s="25">
         <v>1</v>
@@ -2380,7 +2385,7 @@
     </row>
     <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="25">
         <v>1</v>
@@ -2478,7 +2483,7 @@
     </row>
     <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="25">
         <v>1</v>
@@ -2576,7 +2581,7 @@
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="27">
         <v>1</v>
@@ -2674,7 +2679,7 @@
     </row>
     <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B20" s="27">
         <v>0</v>
@@ -2772,7 +2777,7 @@
     </row>
     <row r="21" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B21" s="29">
         <v>1</v>
@@ -2870,7 +2875,7 @@
     </row>
     <row r="22" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B22" s="29">
         <v>1</v>
@@ -2968,7 +2973,7 @@
     </row>
     <row r="23" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B23" s="29">
         <v>0</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B24" s="29">
         <v>1</v>
@@ -3164,7 +3169,7 @@
     </row>
     <row r="25" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B25" s="29">
         <v>1</v>
@@ -3260,7 +3265,7 @@
     </row>
     <row r="26" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B26" s="29">
         <v>1</v>
@@ -3358,7 +3363,7 @@
     </row>
     <row r="27" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B27" s="29">
         <v>1</v>
@@ -3452,7 +3457,7 @@
     </row>
     <row r="28" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B28" s="29">
         <v>1</v>
@@ -3548,7 +3553,7 @@
     </row>
     <row r="29" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
@@ -3646,7 +3651,7 @@
     </row>
     <row r="30" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B30" s="29">
         <v>1</v>
@@ -3744,7 +3749,7 @@
     </row>
     <row r="31" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B31" s="29">
         <v>1</v>
@@ -3842,7 +3847,7 @@
     </row>
     <row r="32" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
@@ -3938,7 +3943,7 @@
     </row>
     <row r="33" spans="1:32" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
@@ -4036,7 +4041,7 @@
     </row>
     <row r="34" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B34" s="29">
         <v>0</v>
@@ -4134,7 +4139,7 @@
     </row>
     <row r="35" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="28" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B35" s="29">
         <v>1</v>
@@ -4232,7 +4237,7 @@
     </row>
     <row r="36" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B36" s="29">
         <v>1</v>
